--- a/doit/data/seaborn_tips.xlsx
+++ b/doit/data/seaborn_tips.xlsx
@@ -1,42 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Pandas\doit\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA22FC3-8531-40F0-9DEF-7D379655A3CF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1452" yWindow="-108" windowWidth="21696" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$I$1</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
-  </pivotCaches>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="17">
   <si>
     <t>total_bill</t>
   </si>
@@ -88,90 +66,16 @@
   <si>
     <t>Lunch</t>
   </si>
-  <si>
-    <t>행 레이블</t>
-  </si>
-  <si>
-    <t>총합계</t>
-  </si>
-  <si>
-    <t>최대 : tip</t>
-  </si>
-  <si>
-    <t>axes1=scatter_plot.add_subplot(1,1,1)</t>
-  </si>
-  <si>
-    <t>axes1.scatter(</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    x=tips['total_bill'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    y=tips['tip'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    s=tips['size']*10,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    c=tips['sex_color'],</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    alpha=0.5</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
-    <t>axes1.set_title('Total Bill vs. Tips Colored by Sex and Sized by Size')</t>
-  </si>
-  <si>
-    <t>axes1.set_xlabel('total bill')</t>
-  </si>
-  <si>
-    <t>axes1.set_ylabe('tips')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axes1 = scatter_plot.add_subplot(1, 1, 1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    x=tips['total_bill'], </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    y=tips['tip'],    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    s=tips['size'] * 10,    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    alpha=0.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">axes1.set_title('Total Bill vs Tip Colored by Sex and Sized by Size') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">axes1.set_xlabel('Total Bill') </t>
-  </si>
-  <si>
-    <t xml:space="preserve">axes1.set_ylabel('Tip') </t>
-  </si>
-  <si>
-    <t>scatter_plot = plt.figure()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>scatter_plot=plt.figure()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,15 +83,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,3311 +123,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[seaborn_tips.xlsx]Sheet2!피벗 테이블1</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ko-KR"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>요약</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D898-4AE6-8FC3-2B76AD76EABC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1985407695"/>
-        <c:axId val="1973542127"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1985407695"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1973542127"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1973542127"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1985407695"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2D4046-442A-474A-ACB5-12B8F23A0BDE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="강서혜" refreshedDate="44014.678040625004" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="244" xr:uid="{17124007-3841-46DC-A175-E671D69F28DB}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B1:H245" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="total_bill" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.07" maxValue="50.81"/>
-    </cacheField>
-    <cacheField name="tip" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="10"/>
-    </cacheField>
-    <cacheField name="sex" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Female"/>
-        <s v="Male"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="smoker" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="day" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="time" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="size" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="244">
-  <r>
-    <n v="16.989999999999998"/>
-    <n v="1.01"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.34"/>
-    <n v="1.66"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="21.01"/>
-    <n v="3.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="23.68"/>
-    <n v="3.31"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="24.59"/>
-    <n v="3.61"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="25.29"/>
-    <n v="4.71"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="8.77"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="26.88"/>
-    <n v="3.12"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="15.04"/>
-    <n v="1.96"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14.78"/>
-    <n v="3.23"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.27"/>
-    <n v="1.71"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="35.26"/>
-    <n v="5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="15.42"/>
-    <n v="1.57"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.43"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="14.83"/>
-    <n v="3.02"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="21.58"/>
-    <n v="3.92"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.33"/>
-    <n v="1.67"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="16.29"/>
-    <n v="3.71"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="16.97"/>
-    <n v="3.5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="20.65"/>
-    <n v="3.35"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="17.920000000000002"/>
-    <n v="4.08"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="20.29"/>
-    <n v="2.75"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="15.77"/>
-    <n v="2.23"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="39.42"/>
-    <n v="7.58"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="19.82"/>
-    <n v="3.18"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.809999999999999"/>
-    <n v="2.34"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="13.37"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.69"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="21.7"/>
-    <n v="4.3"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="19.649999999999999"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="9.5500000000000007"/>
-    <n v="1.45"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.350000000000001"/>
-    <n v="2.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="15.06"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="20.69"/>
-    <n v="2.4500000000000002"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="17.78"/>
-    <n v="3.27"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="24.06"/>
-    <n v="3.6"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="16.309999999999999"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="16.93"/>
-    <n v="3.07"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="18.690000000000001"/>
-    <n v="2.31"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="31.27"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="16.04"/>
-    <n v="2.2400000000000002"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="17.46"/>
-    <n v="2.54"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="13.94"/>
-    <n v="3.06"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="9.68"/>
-    <n v="1.32"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="30.4"/>
-    <n v="5.6"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="18.29"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="22.23"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="32.4"/>
-    <n v="6"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="28.55"/>
-    <n v="2.0499999999999998"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="18.04"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.54"/>
-    <n v="2.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.29"/>
-    <n v="2.6"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="34.81"/>
-    <n v="5.2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="9.94"/>
-    <n v="1.56"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="25.56"/>
-    <n v="4.34"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="19.489999999999998"/>
-    <n v="3.51"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="38.01"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="26.41"/>
-    <n v="1.5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="11.24"/>
-    <n v="1.76"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="48.27"/>
-    <n v="6.73"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="20.29"/>
-    <n v="3.21"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="13.81"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="11.02"/>
-    <n v="1.98"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.29"/>
-    <n v="3.76"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="17.59"/>
-    <n v="2.64"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="20.079999999999998"/>
-    <n v="3.15"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="16.45"/>
-    <n v="2.4700000000000002"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="3.07"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <n v="20.23"/>
-    <n v="2.0099999999999998"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="15.01"/>
-    <n v="2.09"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.02"/>
-    <n v="1.97"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.07"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="26.86"/>
-    <n v="3.14"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="25.28"/>
-    <n v="5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14.73"/>
-    <n v="2.2000000000000002"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.51"/>
-    <n v="1.25"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.920000000000002"/>
-    <n v="3.08"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="27.2"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="22.76"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.29"/>
-    <n v="2.71"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="19.440000000000001"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16.66"/>
-    <n v="3.4"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.07"/>
-    <n v="1.83"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <n v="32.68"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="15.98"/>
-    <n v="2.0299999999999998"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="34.83"/>
-    <n v="5.17"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="13.03"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.28"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="24.71"/>
-    <n v="5.85"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="21.16"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="28.97"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="22.49"/>
-    <n v="3.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="5.75"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16.32"/>
-    <n v="4.3"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="22.75"/>
-    <n v="3.25"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="40.17"/>
-    <n v="4.7300000000000004"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="27.28"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.03"/>
-    <n v="1.5"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="21.01"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.46"/>
-    <n v="1.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="11.35"/>
-    <n v="2.5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="15.38"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="44.3"/>
-    <n v="2.5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="22.42"/>
-    <n v="3.48"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="20.92"/>
-    <n v="4.08"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="15.36"/>
-    <n v="1.64"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="20.49"/>
-    <n v="4.0599999999999996"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="25.21"/>
-    <n v="4.29"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.239999999999998"/>
-    <n v="3.76"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14.31"/>
-    <n v="4"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="7.25"/>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <n v="38.07"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="23.95"/>
-    <n v="2.5499999999999998"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="25.71"/>
-    <n v="4"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="17.309999999999999"/>
-    <n v="3.5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="29.93"/>
-    <n v="5.07"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="10.65"/>
-    <n v="1.5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.43"/>
-    <n v="1.8"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="24.08"/>
-    <n v="2.92"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="11.69"/>
-    <n v="2.31"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="13.42"/>
-    <n v="1.68"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14.26"/>
-    <n v="2.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="15.95"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.48"/>
-    <n v="2.52"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="29.8"/>
-    <n v="4.2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="8.52"/>
-    <n v="1.48"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14.52"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="11.38"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="22.82"/>
-    <n v="2.1800000000000002"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="19.079999999999998"/>
-    <n v="1.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="20.27"/>
-    <n v="2.83"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="11.17"/>
-    <n v="1.5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.26"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.260000000000002"/>
-    <n v="3.25"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="8.51"/>
-    <n v="1.25"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.33"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14.15"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="13.16"/>
-    <n v="2.75"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.47"/>
-    <n v="3.5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="34.299999999999997"/>
-    <n v="6.7"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="41.19"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="27.05"/>
-    <n v="5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="16.43"/>
-    <n v="2.2999999999999998"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="8.35"/>
-    <n v="1.5"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.64"/>
-    <n v="1.36"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="11.87"/>
-    <n v="1.63"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="9.7799999999999994"/>
-    <n v="1.73"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="7.51"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14.07"/>
-    <n v="2.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="13.13"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.260000000000002"/>
-    <n v="2.74"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="24.55"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="19.77"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="29.85"/>
-    <n v="5.14"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="48.17"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="6"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <n v="3.75"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="13.39"/>
-    <n v="2.61"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16.489999999999998"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="21.5"/>
-    <n v="3.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="12.66"/>
-    <n v="2.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16.21"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="13.81"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.510000000000002"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="24.52"/>
-    <n v="3.48"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="20.76"/>
-    <n v="2.2400000000000002"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="31.71"/>
-    <n v="4.5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="10.59"/>
-    <n v="1.61"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.63"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="50.81"/>
-    <n v="10"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="15.81"/>
-    <n v="3.16"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="7.25"/>
-    <n v="5.15"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="31.85"/>
-    <n v="3.18"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16.82"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="32.9"/>
-    <n v="3.11"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.89"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="14.48"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="9.6"/>
-    <n v="4"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="34.630000000000003"/>
-    <n v="3.55"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="34.65"/>
-    <n v="3.68"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="23.33"/>
-    <n v="5.65"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="45.35"/>
-    <n v="3.5"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="23.17"/>
-    <n v="6.5"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="40.549999999999997"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="20.69"/>
-    <n v="5"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="20.9"/>
-    <n v="3.5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="30.46"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="18.149999999999999"/>
-    <n v="3.5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="23.1"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="15.69"/>
-    <n v="1.5"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sun"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="19.809999999999999"/>
-    <n v="4.1900000000000004"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="28.44"/>
-    <n v="2.56"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="15.48"/>
-    <n v="2.02"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16.579999999999998"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="7.56"/>
-    <n v="1.44"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.34"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="43.11"/>
-    <n v="5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="13.51"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.71"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="12.74"/>
-    <n v="2.0099999999999998"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16.399999999999999"/>
-    <n v="2.5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="20.53"/>
-    <n v="4"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="16.47"/>
-    <n v="3.23"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Thur"/>
-    <s v="Lunch"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="26.59"/>
-    <n v="3.41"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="38.729999999999997"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="24.27"/>
-    <n v="2.0299999999999998"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.76"/>
-    <n v="2.23"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="30.06"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="25.89"/>
-    <n v="5.16"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="48.33"/>
-    <n v="9"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="13.27"/>
-    <n v="2.5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="28.17"/>
-    <n v="6.5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="12.9"/>
-    <n v="1.1000000000000001"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="28.15"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="5"/>
-  </r>
-  <r>
-    <n v="11.59"/>
-    <n v="1.5"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="7.74"/>
-    <n v="1.44"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="30.14"/>
-    <n v="3.09"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="12.16"/>
-    <n v="2.2000000000000002"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="13.42"/>
-    <n v="3.48"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="8.58"/>
-    <n v="1.92"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Lunch"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <n v="15.98"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Fri"/>
-    <s v="Lunch"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="13.42"/>
-    <n v="1.58"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="16.27"/>
-    <n v="2.5"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.09"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Fri"/>
-    <s v="Lunch"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="20.45"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="13.28"/>
-    <n v="2.72"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="22.12"/>
-    <n v="2.88"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="24.01"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="4"/>
-  </r>
-  <r>
-    <n v="15.69"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="11.61"/>
-    <n v="3.39"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.77"/>
-    <n v="1.47"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="15.53"/>
-    <n v="3"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="10.07"/>
-    <n v="1.25"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="12.6"/>
-    <n v="1"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="32.83"/>
-    <n v="1.17"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="35.83"/>
-    <n v="4.67"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="29.03"/>
-    <n v="5.92"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="3"/>
-  </r>
-  <r>
-    <n v="27.18"/>
-    <n v="2"/>
-    <x v="0"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="22.67"/>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="Yes"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="17.82"/>
-    <n v="1.75"/>
-    <x v="1"/>
-    <s v="No"/>
-    <s v="Sat"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-  <r>
-    <n v="18.78"/>
-    <n v="3"/>
-    <x v="0"/>
-    <s v="No"/>
-    <s v="Thur"/>
-    <s v="Dinner"/>
-    <n v="2"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E912A83-2C16-4AA7-BA2D-FE04F38B5F17}" name="피벗 테이블1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="최대 : tip" fld="1" subtotal="max" baseField="2" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3572,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3604,27 +212,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3656,24 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3849,71 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BAA2A9-39AA-42A4-93FF-BEC6DE21E6DA}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I245"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B69" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3936,12 +451,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.989999999999998</v>
+        <v>16.99</v>
       </c>
       <c r="C2">
         <v>1.01</v>
@@ -3962,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3988,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4014,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4040,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4066,7 +581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4092,7 +607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4118,7 +633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4144,7 +659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4170,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4196,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4222,7 +737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4248,7 +763,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4274,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4300,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4326,7 +841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4352,7 +867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4378,7 +893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4404,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4430,7 +945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4456,12 +971,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.920000000000002</v>
+        <v>17.92</v>
       </c>
       <c r="C22">
         <v>4.08</v>
@@ -4482,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4508,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4534,7 +1049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4560,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4586,12 +1101,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>17.809999999999999</v>
+        <v>17.81</v>
       </c>
       <c r="C27">
         <v>2.34</v>
@@ -4612,7 +1127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4638,7 +1153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4664,7 +1179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4690,12 +1205,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>19.649999999999999</v>
+        <v>19.65</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -4716,12 +1231,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>9.5500000000000007</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C32">
         <v>1.45</v>
@@ -4742,12 +1257,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>18.350000000000001</v>
+        <v>18.35</v>
       </c>
       <c r="C33">
         <v>2.5</v>
@@ -4768,7 +1283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4794,7 +1309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4802,7 +1317,7 @@
         <v>20.69</v>
       </c>
       <c r="C35">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -4820,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4846,7 +1361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4872,12 +1387,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>16.309999999999999</v>
+        <v>16.31</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -4898,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4924,12 +1439,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>18.690000000000001</v>
+        <v>18.69</v>
       </c>
       <c r="C40">
         <v>2.31</v>
@@ -4950,7 +1465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4976,7 +1491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4984,7 +1499,7 @@
         <v>16.04</v>
       </c>
       <c r="C42">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
@@ -5002,7 +1517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5028,7 +1543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5054,7 +1569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5080,7 +1595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5106,7 +1621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5132,7 +1647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5158,7 +1673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5184,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5192,7 +1707,7 @@
         <v>28.55</v>
       </c>
       <c r="C50">
-        <v>2.0499999999999998</v>
+        <v>2.05</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
@@ -5210,7 +1725,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5236,7 +1751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5262,7 +1777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5288,7 +1803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5314,7 +1829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5340,7 +1855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5366,12 +1881,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>19.489999999999998</v>
+        <v>19.49</v>
       </c>
       <c r="C57">
         <v>3.51</v>
@@ -5392,7 +1907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5418,7 +1933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5444,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5470,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5496,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5522,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5548,7 +2063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5574,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5600,7 +2115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5626,12 +2141,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>20.079999999999998</v>
+        <v>20.08</v>
       </c>
       <c r="C67">
         <v>3.15</v>
@@ -5652,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5660,7 +2175,7 @@
         <v>16.45</v>
       </c>
       <c r="C68">
-        <v>2.4700000000000002</v>
+        <v>2.47</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -5678,7 +2193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5704,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5712,7 +2227,7 @@
         <v>20.23</v>
       </c>
       <c r="C70">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -5730,7 +2245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5756,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5782,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5808,7 +2323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5834,7 +2349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5860,7 +2375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5868,7 +2383,7 @@
         <v>14.73</v>
       </c>
       <c r="C76">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -5886,7 +2401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5912,12 +2427,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>17.920000000000002</v>
+        <v>17.92</v>
       </c>
       <c r="C78">
         <v>3.08</v>
@@ -5938,7 +2453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5964,7 +2479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5990,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6016,12 +2531,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>19.440000000000001</v>
+        <v>19.44</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -6042,7 +2557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6068,7 +2583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6094,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6120,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6128,7 +2643,7 @@
         <v>15.98</v>
       </c>
       <c r="C86">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -6146,7 +2661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6172,7 +2687,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6198,7 +2713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6224,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6250,7 +2765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6276,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6302,7 +2817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6328,7 +2843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6354,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6380,7 +2895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6406,7 +2921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6414,7 +2929,7 @@
         <v>40.17</v>
       </c>
       <c r="C97">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
@@ -6432,7 +2947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6458,7 +2973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6484,7 +2999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6510,7 +3025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6536,7 +3051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6561,12 +3076,8 @@
       <c r="H102">
         <v>2</v>
       </c>
-      <c r="I102" t="b">
-        <f>C102&gt;2.7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6591,12 +3102,8 @@
       <c r="H103">
         <v>2</v>
       </c>
-      <c r="I103" t="b">
-        <f t="shared" ref="I103:I166" si="0">C103&gt;2.7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6621,12 +3128,8 @@
       <c r="H104">
         <v>3</v>
       </c>
-      <c r="I104" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6651,12 +3154,8 @@
       <c r="H105">
         <v>2</v>
       </c>
-      <c r="I105" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6681,12 +3180,8 @@
       <c r="H106">
         <v>2</v>
       </c>
-      <c r="I106" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6711,12 +3206,8 @@
       <c r="H107">
         <v>2</v>
       </c>
-      <c r="I107" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6724,7 +3215,7 @@
         <v>20.49</v>
       </c>
       <c r="C108">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -6741,12 +3232,8 @@
       <c r="H108">
         <v>2</v>
       </c>
-      <c r="I108" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6771,17 +3258,13 @@
       <c r="H109">
         <v>2</v>
       </c>
-      <c r="I109" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>18.239999999999998</v>
+        <v>18.24</v>
       </c>
       <c r="C110">
         <v>3.76</v>
@@ -6801,12 +3284,8 @@
       <c r="H110">
         <v>2</v>
       </c>
-      <c r="I110" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6831,12 +3310,8 @@
       <c r="H111">
         <v>2</v>
       </c>
-      <c r="I111" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6861,12 +3336,8 @@
       <c r="H112">
         <v>2</v>
       </c>
-      <c r="I112" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6891,12 +3362,8 @@
       <c r="H113">
         <v>1</v>
       </c>
-      <c r="I113" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6921,12 +3388,8 @@
       <c r="H114">
         <v>3</v>
       </c>
-      <c r="I114" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6934,7 +3397,7 @@
         <v>23.95</v>
       </c>
       <c r="C115">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
@@ -6951,12 +3414,8 @@
       <c r="H115">
         <v>2</v>
       </c>
-      <c r="I115" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6981,17 +3440,13 @@
       <c r="H116">
         <v>3</v>
       </c>
-      <c r="I116" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>17.309999999999999</v>
+        <v>17.31</v>
       </c>
       <c r="C117">
         <v>3.5</v>
@@ -7011,12 +3466,8 @@
       <c r="H117">
         <v>2</v>
       </c>
-      <c r="I117" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7041,12 +3492,8 @@
       <c r="H118">
         <v>4</v>
       </c>
-      <c r="I118" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -7071,12 +3518,8 @@
       <c r="H119">
         <v>2</v>
       </c>
-      <c r="I119" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -7101,12 +3544,8 @@
       <c r="H120">
         <v>2</v>
       </c>
-      <c r="I120" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -7131,12 +3570,8 @@
       <c r="H121">
         <v>4</v>
       </c>
-      <c r="I121" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -7161,12 +3596,8 @@
       <c r="H122">
         <v>2</v>
       </c>
-      <c r="I122" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -7191,12 +3622,8 @@
       <c r="H123">
         <v>2</v>
       </c>
-      <c r="I123" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -7221,12 +3648,8 @@
       <c r="H124">
         <v>2</v>
       </c>
-      <c r="I124" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -7251,12 +3674,8 @@
       <c r="H125">
         <v>2</v>
       </c>
-      <c r="I125" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -7281,12 +3700,8 @@
       <c r="H126">
         <v>2</v>
       </c>
-      <c r="I126" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -7311,12 +3726,8 @@
       <c r="H127">
         <v>6</v>
       </c>
-      <c r="I127" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -7341,12 +3752,8 @@
       <c r="H128">
         <v>2</v>
       </c>
-      <c r="I128" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -7371,12 +3778,8 @@
       <c r="H129">
         <v>2</v>
       </c>
-      <c r="I129" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -7401,12 +3804,8 @@
       <c r="H130">
         <v>2</v>
       </c>
-      <c r="I130" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -7414,7 +3813,7 @@
         <v>22.82</v>
       </c>
       <c r="C131">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
@@ -7431,17 +3830,13 @@
       <c r="H131">
         <v>3</v>
       </c>
-      <c r="I131" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>19.079999999999998</v>
+        <v>19.08</v>
       </c>
       <c r="C132">
         <v>1.5</v>
@@ -7461,12 +3856,8 @@
       <c r="H132">
         <v>2</v>
       </c>
-      <c r="I132" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -7491,12 +3882,8 @@
       <c r="H133">
         <v>2</v>
       </c>
-      <c r="I133" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -7521,12 +3908,8 @@
       <c r="H134">
         <v>2</v>
       </c>
-      <c r="I134" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -7551,17 +3934,13 @@
       <c r="H135">
         <v>2</v>
       </c>
-      <c r="I135" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>18.260000000000002</v>
+        <v>18.26</v>
       </c>
       <c r="C136">
         <v>3.25</v>
@@ -7581,12 +3960,8 @@
       <c r="H136">
         <v>2</v>
       </c>
-      <c r="I136" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -7611,12 +3986,8 @@
       <c r="H137">
         <v>2</v>
       </c>
-      <c r="I137" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -7641,12 +4012,8 @@
       <c r="H138">
         <v>2</v>
       </c>
-      <c r="I138" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -7671,12 +4038,8 @@
       <c r="H139">
         <v>2</v>
       </c>
-      <c r="I139" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -7701,12 +4064,8 @@
       <c r="H140">
         <v>2</v>
       </c>
-      <c r="I140" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -7731,12 +4090,8 @@
       <c r="H141">
         <v>2</v>
       </c>
-      <c r="I141" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -7761,17 +4116,13 @@
       <c r="H142">
         <v>2</v>
       </c>
-      <c r="I142" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>34.299999999999997</v>
+        <v>34.3</v>
       </c>
       <c r="C143">
         <v>6.7</v>
@@ -7791,12 +4142,8 @@
       <c r="H143">
         <v>6</v>
       </c>
-      <c r="I143" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -7821,12 +4168,8 @@
       <c r="H144">
         <v>5</v>
       </c>
-      <c r="I144" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -7851,12 +4194,8 @@
       <c r="H145">
         <v>6</v>
       </c>
-      <c r="I145" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -7864,7 +4203,7 @@
         <v>16.43</v>
       </c>
       <c r="C146">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="D146" t="s">
         <v>7</v>
@@ -7881,12 +4220,8 @@
       <c r="H146">
         <v>2</v>
       </c>
-      <c r="I146" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -7911,12 +4246,8 @@
       <c r="H147">
         <v>2</v>
       </c>
-      <c r="I147" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -7941,12 +4272,8 @@
       <c r="H148">
         <v>3</v>
       </c>
-      <c r="I148" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -7971,17 +4298,13 @@
       <c r="H149">
         <v>2</v>
       </c>
-      <c r="I149" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>9.7799999999999994</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C150">
         <v>1.73</v>
@@ -8001,12 +4324,8 @@
       <c r="H150">
         <v>2</v>
       </c>
-      <c r="I150" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -8031,12 +4350,8 @@
       <c r="H151">
         <v>2</v>
       </c>
-      <c r="I151" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -8061,12 +4376,8 @@
       <c r="H152">
         <v>2</v>
       </c>
-      <c r="I152" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -8091,17 +4402,13 @@
       <c r="H153">
         <v>2</v>
       </c>
-      <c r="I153" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>17.260000000000002</v>
+        <v>17.26</v>
       </c>
       <c r="C154">
         <v>2.74</v>
@@ -8121,12 +4428,8 @@
       <c r="H154">
         <v>3</v>
       </c>
-      <c r="I154" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -8151,12 +4454,8 @@
       <c r="H155">
         <v>4</v>
       </c>
-      <c r="I155" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -8181,12 +4480,8 @@
       <c r="H156">
         <v>4</v>
       </c>
-      <c r="I156" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -8211,12 +4506,8 @@
       <c r="H157">
         <v>5</v>
       </c>
-      <c r="I157" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -8241,12 +4532,8 @@
       <c r="H158">
         <v>6</v>
       </c>
-      <c r="I158" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -8271,12 +4558,8 @@
       <c r="H159">
         <v>4</v>
       </c>
-      <c r="I159" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -8301,17 +4584,13 @@
       <c r="H160">
         <v>2</v>
       </c>
-      <c r="I160" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>16.489999999999998</v>
+        <v>16.49</v>
       </c>
       <c r="C161">
         <v>2</v>
@@ -8331,12 +4610,8 @@
       <c r="H161">
         <v>4</v>
       </c>
-      <c r="I161" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -8361,12 +4636,8 @@
       <c r="H162">
         <v>4</v>
       </c>
-      <c r="I162" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -8391,12 +4662,8 @@
       <c r="H163">
         <v>2</v>
       </c>
-      <c r="I163" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -8421,12 +4688,8 @@
       <c r="H164">
         <v>3</v>
       </c>
-      <c r="I164" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -8451,17 +4714,13 @@
       <c r="H165">
         <v>2</v>
       </c>
-      <c r="I165" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
       <c r="C166">
         <v>3</v>
@@ -8481,12 +4740,8 @@
       <c r="H166">
         <v>2</v>
       </c>
-      <c r="I166" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -8511,12 +4766,8 @@
       <c r="H167">
         <v>3</v>
       </c>
-      <c r="I167" t="b">
-        <f t="shared" ref="I167:I230" si="1">C167&gt;2.7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -8524,7 +4775,7 @@
         <v>20.76</v>
       </c>
       <c r="C168">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
@@ -8541,12 +4792,8 @@
       <c r="H168">
         <v>2</v>
       </c>
-      <c r="I168" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -8571,12 +4818,8 @@
       <c r="H169">
         <v>4</v>
       </c>
-      <c r="I169" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -8601,12 +4844,8 @@
       <c r="H170">
         <v>2</v>
       </c>
-      <c r="I170" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -8631,12 +4870,8 @@
       <c r="H171">
         <v>2</v>
       </c>
-      <c r="I171" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -8661,12 +4896,8 @@
       <c r="H172">
         <v>3</v>
       </c>
-      <c r="I172" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -8691,12 +4922,8 @@
       <c r="H173">
         <v>2</v>
       </c>
-      <c r="I173" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -8721,12 +4948,8 @@
       <c r="H174">
         <v>2</v>
       </c>
-      <c r="I174" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -8751,12 +4974,8 @@
       <c r="H175">
         <v>2</v>
       </c>
-      <c r="I175" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -8781,12 +5000,8 @@
       <c r="H176">
         <v>2</v>
       </c>
-      <c r="I176" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -8811,12 +5026,8 @@
       <c r="H177">
         <v>2</v>
       </c>
-      <c r="I177" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -8841,12 +5052,8 @@
       <c r="H178">
         <v>2</v>
       </c>
-      <c r="I178" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -8871,12 +5078,8 @@
       <c r="H179">
         <v>2</v>
       </c>
-      <c r="I179" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -8901,17 +5104,13 @@
       <c r="H180">
         <v>2</v>
       </c>
-      <c r="I180" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>34.630000000000003</v>
+        <v>34.63</v>
       </c>
       <c r="C181">
         <v>3.55</v>
@@ -8931,12 +5130,8 @@
       <c r="H181">
         <v>2</v>
       </c>
-      <c r="I181" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -8961,12 +5156,8 @@
       <c r="H182">
         <v>4</v>
       </c>
-      <c r="I182" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -8991,12 +5182,8 @@
       <c r="H183">
         <v>2</v>
       </c>
-      <c r="I183" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -9021,12 +5208,8 @@
       <c r="H184">
         <v>3</v>
       </c>
-      <c r="I184" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -9051,17 +5234,13 @@
       <c r="H185">
         <v>4</v>
       </c>
-      <c r="I185" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>40.549999999999997</v>
+        <v>40.55</v>
       </c>
       <c r="C186">
         <v>3</v>
@@ -9081,12 +5260,8 @@
       <c r="H186">
         <v>2</v>
       </c>
-      <c r="I186" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -9111,12 +5286,8 @@
       <c r="H187">
         <v>5</v>
       </c>
-      <c r="I187" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -9141,12 +5312,8 @@
       <c r="H188">
         <v>3</v>
       </c>
-      <c r="I188" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -9171,17 +5338,13 @@
       <c r="H189">
         <v>5</v>
       </c>
-      <c r="I189" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>18.149999999999999</v>
+        <v>18.15</v>
       </c>
       <c r="C190">
         <v>3.5</v>
@@ -9201,12 +5364,8 @@
       <c r="H190">
         <v>3</v>
       </c>
-      <c r="I190" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -9231,12 +5390,8 @@
       <c r="H191">
         <v>3</v>
       </c>
-      <c r="I191" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -9261,20 +5416,16 @@
       <c r="H192">
         <v>2</v>
       </c>
-      <c r="I192" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>19.809999999999999</v>
+        <v>19.81</v>
       </c>
       <c r="C193">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -9291,12 +5442,8 @@
       <c r="H193">
         <v>2</v>
       </c>
-      <c r="I193" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -9321,12 +5468,8 @@
       <c r="H194">
         <v>2</v>
       </c>
-      <c r="I194" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -9351,17 +5494,13 @@
       <c r="H195">
         <v>2</v>
       </c>
-      <c r="I195" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>16.579999999999998</v>
+        <v>16.58</v>
       </c>
       <c r="C196">
         <v>4</v>
@@ -9381,12 +5520,8 @@
       <c r="H196">
         <v>2</v>
       </c>
-      <c r="I196" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -9411,12 +5546,8 @@
       <c r="H197">
         <v>2</v>
       </c>
-      <c r="I197" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -9441,12 +5572,8 @@
       <c r="H198">
         <v>2</v>
       </c>
-      <c r="I198" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -9471,12 +5598,8 @@
       <c r="H199">
         <v>4</v>
       </c>
-      <c r="I199" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -9501,12 +5624,8 @@
       <c r="H200">
         <v>2</v>
       </c>
-      <c r="I200" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -9531,12 +5650,8 @@
       <c r="H201">
         <v>2</v>
       </c>
-      <c r="I201" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -9561,12 +5676,8 @@
       <c r="H202">
         <v>3</v>
       </c>
-      <c r="I202" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -9574,7 +5685,7 @@
         <v>12.74</v>
       </c>
       <c r="C203">
-        <v>2.0099999999999998</v>
+        <v>2.01</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -9591,12 +5702,8 @@
       <c r="H203">
         <v>2</v>
       </c>
-      <c r="I203" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -9621,17 +5728,13 @@
       <c r="H204">
         <v>2</v>
       </c>
-      <c r="I204" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>16.399999999999999</v>
+        <v>16.4</v>
       </c>
       <c r="C205">
         <v>2.5</v>
@@ -9651,12 +5754,8 @@
       <c r="H205">
         <v>2</v>
       </c>
-      <c r="I205" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -9681,12 +5780,8 @@
       <c r="H206">
         <v>4</v>
       </c>
-      <c r="I206" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -9711,12 +5806,8 @@
       <c r="H207">
         <v>3</v>
       </c>
-      <c r="I207" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -9741,17 +5832,13 @@
       <c r="H208">
         <v>3</v>
       </c>
-      <c r="I208" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>38.729999999999997</v>
+        <v>38.73</v>
       </c>
       <c r="C209">
         <v>3</v>
@@ -9771,12 +5858,8 @@
       <c r="H209">
         <v>4</v>
       </c>
-      <c r="I209" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -9784,7 +5867,7 @@
         <v>24.27</v>
       </c>
       <c r="C210">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="D210" t="s">
         <v>8</v>
@@ -9801,12 +5884,8 @@
       <c r="H210">
         <v>2</v>
       </c>
-      <c r="I210" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -9831,12 +5910,8 @@
       <c r="H211">
         <v>2</v>
       </c>
-      <c r="I211" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -9861,12 +5936,8 @@
       <c r="H212">
         <v>3</v>
       </c>
-      <c r="I212" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -9891,12 +5962,8 @@
       <c r="H213">
         <v>4</v>
       </c>
-      <c r="I213" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -9921,12 +5988,8 @@
       <c r="H214">
         <v>4</v>
       </c>
-      <c r="I214" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -9951,12 +6014,8 @@
       <c r="H215">
         <v>2</v>
       </c>
-      <c r="I215" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -9981,12 +6040,8 @@
       <c r="H216">
         <v>3</v>
       </c>
-      <c r="I216" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -9994,7 +6049,7 @@
         <v>12.9</v>
       </c>
       <c r="C217">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
@@ -10011,12 +6066,8 @@
       <c r="H217">
         <v>2</v>
       </c>
-      <c r="I217" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -10041,12 +6092,8 @@
       <c r="H218">
         <v>5</v>
       </c>
-      <c r="I218" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -10071,12 +6118,8 @@
       <c r="H219">
         <v>2</v>
       </c>
-      <c r="I219" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -10101,12 +6144,8 @@
       <c r="H220">
         <v>2</v>
       </c>
-      <c r="I220" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -10131,12 +6170,8 @@
       <c r="H221">
         <v>4</v>
       </c>
-      <c r="I221" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -10144,7 +6179,7 @@
         <v>12.16</v>
       </c>
       <c r="C222">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="D222" t="s">
         <v>8</v>
@@ -10161,12 +6196,8 @@
       <c r="H222">
         <v>2</v>
       </c>
-      <c r="I222" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -10191,12 +6222,8 @@
       <c r="H223">
         <v>2</v>
       </c>
-      <c r="I223" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -10221,12 +6248,8 @@
       <c r="H224">
         <v>1</v>
       </c>
-      <c r="I224" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -10251,12 +6274,8 @@
       <c r="H225">
         <v>3</v>
       </c>
-      <c r="I225" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -10281,12 +6300,8 @@
       <c r="H226">
         <v>2</v>
       </c>
-      <c r="I226" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -10311,12 +6326,8 @@
       <c r="H227">
         <v>2</v>
       </c>
-      <c r="I227" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -10341,12 +6352,8 @@
       <c r="H228">
         <v>2</v>
       </c>
-      <c r="I228" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -10371,12 +6378,8 @@
       <c r="H229">
         <v>4</v>
       </c>
-      <c r="I229" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -10401,12 +6404,8 @@
       <c r="H230">
         <v>2</v>
       </c>
-      <c r="I230" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -10431,12 +6430,8 @@
       <c r="H231">
         <v>2</v>
       </c>
-      <c r="I231" t="b">
-        <f t="shared" ref="I231:I245" si="2">C231&gt;2.7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -10461,12 +6456,8 @@
       <c r="H232">
         <v>4</v>
       </c>
-      <c r="I232" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -10491,12 +6482,8 @@
       <c r="H233">
         <v>3</v>
       </c>
-      <c r="I233" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -10521,12 +6508,8 @@
       <c r="H234">
         <v>2</v>
       </c>
-      <c r="I234" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -10551,12 +6534,8 @@
       <c r="H235">
         <v>2</v>
       </c>
-      <c r="I235" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -10581,12 +6560,8 @@
       <c r="H236">
         <v>2</v>
       </c>
-      <c r="I236" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -10611,12 +6586,8 @@
       <c r="H237">
         <v>2</v>
       </c>
-      <c r="I237" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -10641,12 +6612,8 @@
       <c r="H238">
         <v>2</v>
       </c>
-      <c r="I238" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -10671,12 +6638,8 @@
       <c r="H239">
         <v>2</v>
       </c>
-      <c r="I239" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -10701,12 +6664,8 @@
       <c r="H240">
         <v>3</v>
       </c>
-      <c r="I240" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -10731,12 +6690,8 @@
       <c r="H241">
         <v>3</v>
       </c>
-      <c r="I241" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -10761,12 +6716,8 @@
       <c r="H242">
         <v>2</v>
       </c>
-      <c r="I242" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -10791,12 +6742,8 @@
       <c r="H243">
         <v>2</v>
       </c>
-      <c r="I243" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -10821,12 +6768,8 @@
       <c r="H244">
         <v>2</v>
       </c>
-      <c r="I244" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -10851,181 +6794,8 @@
       <c r="H245">
         <v>2</v>
       </c>
-      <c r="I245" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{749A5A31-FB40-418A-8346-D02E40267ECC}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC6D5B7-EFBE-4BDE-94EC-718A33BC0C23}">
-  <dimension ref="E8:G20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="5" max="5" width="59.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="str">
-        <f>IF(E8=F8,"T","F")</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="9" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" ref="G9:G20" si="0">IF(E9=F9,"T","F")</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="10" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="11" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="12" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="13" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="14" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>T</v>
-      </c>
-    </row>
-    <row r="15" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="16" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="F17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E18" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>F</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>